--- a/database/sidis/expdata/2529.xlsx
+++ b/database/sidis/expdata/2529.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshuamiller/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/physicsstudentresearch/Documents/jam3d/database/sidis/expdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{111ED016-7428-A840-B373-97C71BB814FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E629591-FC76-F24B-92B6-2BB5A58BAD67}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13360" yWindow="2320" windowWidth="27640" windowHeight="16940" xr2:uid="{CA4F4907-AE86-DE42-B0F8-67D52B87A1C0}"/>
+    <workbookView xWindow="8120" yWindow="460" windowWidth="14220" windowHeight="16940" xr2:uid="{CA4F4907-AE86-DE42-B0F8-67D52B87A1C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,15 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -470,8 +461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BE152B3-08A2-C443-A884-48722FC43D52}">
   <dimension ref="A1:T65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E10" zoomScale="86" workbookViewId="0">
-      <selection activeCell="J48" sqref="J48"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="80" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1060,7 +1051,7 @@
         <v>23</v>
       </c>
       <c r="G10">
-        <v>2.9000000000000001E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="H10">
         <v>7.3300000000000004E-2</v>
@@ -1186,7 +1177,7 @@
         <v>23</v>
       </c>
       <c r="G12">
-        <v>-5.0000000000000001E-4</v>
+        <v>-4.0000000000000002E-4</v>
       </c>
       <c r="H12">
         <v>9.3299999999999994E-2</v>
@@ -1801,7 +1792,7 @@
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="C22">
-        <v>-0.45500000000000002</v>
+        <v>0.45500000000000002</v>
       </c>
       <c r="D22">
         <v>0.32300000000000001</v>
@@ -3690,7 +3681,7 @@
         <v>0.24099999999999999</v>
       </c>
       <c r="E52">
-        <v>0.44600000000000001</v>
+        <v>0.44500000000000001</v>
       </c>
       <c r="F52" t="s">
         <v>23</v>
